--- a/experimentos/experimentos chainhammer.xlsx
+++ b/experimentos/experimentos chainhammer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\igor\chainhammer\experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF50EEF-39CD-4A8D-AB63-9234CA09C115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E8749-6FCF-49D0-B5D5-9E019A5B1CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="828" windowWidth="17280" windowHeight="8976" xr2:uid="{272068B0-5062-40BE-989F-E48F5792CB70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{272068B0-5062-40BE-989F-E48F5792CB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B4AB15-632E-49E3-B301-8086E95CE8CC}">
   <dimension ref="B3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,362 +1779,362 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1">
-        <v>2</v>
-      </c>
-      <c r="F61" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>10</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="C63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="1">
-        <v>2</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="1">
-        <v>4</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3</v>
-      </c>
-      <c r="F67" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="1">
-        <v>5</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="1">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="B68" s="3">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3</v>
+      </c>
+      <c r="F68" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>10</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1">
-        <v>4</v>
-      </c>
-      <c r="F70" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="1">
-        <v>2</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1">
-        <v>4</v>
-      </c>
-      <c r="F71" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="3">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="1">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1">
-        <v>4</v>
-      </c>
-      <c r="F72" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="1">
-        <v>4</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="1">
-        <v>4</v>
-      </c>
-      <c r="F73" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="3">
+        <v>4</v>
+      </c>
+      <c r="F73" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="1">
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="B74" s="3">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>10</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="1">
-        <v>4</v>
-      </c>
-      <c r="F75" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/experimentos/experimentos chainhammer.xlsx
+++ b/experimentos/experimentos chainhammer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\igor\chainhammer\experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E8749-6FCF-49D0-B5D5-9E019A5B1CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DFA3B-42D3-4468-9C83-03B6DB96776E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{272068B0-5062-40BE-989F-E48F5792CB70}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>Period</t>
   </si>
@@ -277,6 +271,36 @@
   </si>
   <si>
     <t>g1-xl1-p3</t>
+  </si>
+  <si>
+    <t>g2-m2-p1</t>
+  </si>
+  <si>
+    <t>g2-l2-p1</t>
+  </si>
+  <si>
+    <t>g2-m3-p1</t>
+  </si>
+  <si>
+    <t>g2-l3-p1</t>
+  </si>
+  <si>
+    <t>g2-l4-p1</t>
+  </si>
+  <si>
+    <t>g2-m4-p1</t>
+  </si>
+  <si>
+    <t>g2-xl2-p1</t>
+  </si>
+  <si>
+    <t>g2-xl3-p1</t>
+  </si>
+  <si>
+    <t>g2-xl4-p1</t>
+  </si>
+  <si>
+    <t>0x80000000</t>
   </si>
 </sst>
 </file>
@@ -666,15 +690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B4AB15-632E-49E3-B301-8086E95CE8CC}">
-  <dimension ref="B3:G75"/>
+  <dimension ref="B3:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2138,6 +2162,186 @@
         <v>79</v>
       </c>
     </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/experimentos/experimentos chainhammer.xlsx
+++ b/experimentos/experimentos chainhammer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\igor\chainhammer\experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DFA3B-42D3-4468-9C83-03B6DB96776E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F1934-FB65-48F3-95C8-009D9DD482A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{272068B0-5062-40BE-989F-E48F5792CB70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
   <si>
     <t>Period</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>0x80000000</t>
+  </si>
+  <si>
+    <t>g2-xl1-p1</t>
+  </si>
+  <si>
+    <t>g2-l1-p1</t>
+  </si>
+  <si>
+    <t>g2-m1-p1</t>
   </si>
 </sst>
 </file>
@@ -690,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B4AB15-632E-49E3-B301-8086E95CE8CC}">
-  <dimension ref="B3:G84"/>
+  <dimension ref="B3:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,13 +2182,13 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3">
         <v>20000</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -2193,13 +2202,13 @@
         <v>5</v>
       </c>
       <c r="E77" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3">
         <v>20000</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
@@ -2213,13 +2222,13 @@
         <v>5</v>
       </c>
       <c r="E78" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" s="3">
         <v>20000</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
@@ -2230,16 +2239,16 @@
         <v>91</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E79" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="3">
         <v>20000</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
@@ -2253,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="E80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="3">
         <v>20000</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
@@ -2273,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3">
         <v>20000</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
@@ -2290,16 +2299,16 @@
         <v>91</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" s="3">
         <v>20000</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
@@ -2310,16 +2319,16 @@
         <v>91</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>20000</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
@@ -2333,12 +2342,72 @@
         <v>9</v>
       </c>
       <c r="E84" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" s="3">
         <v>20000</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3</v>
+      </c>
+      <c r="F86" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
